--- a/2024/nuno-dataset/test-oxigen/content/results/metrics_5_9.xlsx
+++ b/2024/nuno-dataset/test-oxigen/content/results/metrics_5_9.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -478,187 +478,187 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_5_9_20</t>
+          <t>model_5_9_24</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.3924113017549538</v>
+        <v>0.6181525318771928</v>
       </c>
       <c r="C2" t="n">
-        <v>-2.049349114906907</v>
+        <v>-4.707673193309869</v>
       </c>
       <c r="D2" t="n">
-        <v>-4.219300946616904</v>
+        <v>0.3776375017972801</v>
       </c>
       <c r="E2" t="n">
-        <v>-2.438147193970357</v>
+        <v>-0.1963937273187066</v>
       </c>
       <c r="F2" t="n">
-        <v>1.540988922119141</v>
+        <v>0.4225926399230957</v>
       </c>
       <c r="G2" t="n">
-        <v>6.854334354400635</v>
+        <v>1.311975717544556</v>
       </c>
       <c r="H2" t="n">
-        <v>2.918951034545898</v>
+        <v>1.042464017868042</v>
       </c>
       <c r="I2" t="n">
-        <v>5.002384662628174</v>
+        <v>1.185147643089294</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_5_9_2</t>
+          <t>model_5_9_23</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.3837614222022561</v>
+        <v>0.6189279126779217</v>
       </c>
       <c r="C3" t="n">
-        <v>-1.944363466884759</v>
+        <v>-4.629919564925045</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.5309687552182689</v>
+        <v>0.3803210859712595</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.685119920054886</v>
+        <v>-0.1847052757925227</v>
       </c>
       <c r="F3" t="n">
-        <v>1.531416177749634</v>
+        <v>0.4217345416545868</v>
       </c>
       <c r="G3" t="n">
-        <v>6.618347644805908</v>
+        <v>1.294103145599365</v>
       </c>
       <c r="H3" t="n">
-        <v>0.8562110662460327</v>
+        <v>1.037968993186951</v>
       </c>
       <c r="I3" t="n">
-        <v>3.906756639480591</v>
+        <v>1.173569202423096</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_5_9_3</t>
+          <t>model_5_9_22</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.3509862134724826</v>
+        <v>0.6201205155580951</v>
       </c>
       <c r="C4" t="n">
-        <v>-1.863403362441165</v>
+        <v>-4.544298155734875</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.596377447581764</v>
+        <v>0.3842117324190132</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.630732543796966</v>
+        <v>-0.1710910540414248</v>
       </c>
       <c r="F4" t="n">
-        <v>1.49514365196228</v>
+        <v>0.4204146564006805</v>
       </c>
       <c r="G4" t="n">
-        <v>6.436365127563477</v>
+        <v>1.27442193031311</v>
       </c>
       <c r="H4" t="n">
-        <v>0.8927915096282959</v>
+        <v>1.031452059745789</v>
       </c>
       <c r="I4" t="n">
-        <v>3.827625036239624</v>
+        <v>1.160082817077637</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_5_9_19</t>
+          <t>model_5_9_21</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.3188262912042372</v>
+        <v>0.6208575877610054</v>
       </c>
       <c r="C5" t="n">
-        <v>-1.859521832493092</v>
+        <v>-4.457931172713807</v>
       </c>
       <c r="D5" t="n">
-        <v>-3.967227427032018</v>
+        <v>0.3860738071938522</v>
       </c>
       <c r="E5" t="n">
-        <v>-2.237295413230323</v>
+        <v>-0.158999161492279</v>
       </c>
       <c r="F5" t="n">
-        <v>1.459551930427551</v>
+        <v>0.4195989668369293</v>
       </c>
       <c r="G5" t="n">
-        <v>6.427639961242676</v>
+        <v>1.254569530487061</v>
       </c>
       <c r="H5" t="n">
-        <v>2.777976274490356</v>
+        <v>1.028333187103271</v>
       </c>
       <c r="I5" t="n">
-        <v>4.710153102874756</v>
+        <v>1.148104667663574</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_5_9_5</t>
+          <t>model_5_9_20</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.2968639681228584</v>
+        <v>0.6215846293025467</v>
       </c>
       <c r="C6" t="n">
-        <v>-1.71693711486895</v>
+        <v>-4.367092309443401</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.8582088315419036</v>
+        <v>0.3877049781151057</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.558295759780677</v>
+        <v>-0.1465429063307215</v>
       </c>
       <c r="F6" t="n">
-        <v>1.435246348381042</v>
+        <v>0.4187943339347839</v>
       </c>
       <c r="G6" t="n">
-        <v>6.107137680053711</v>
+        <v>1.233689069747925</v>
       </c>
       <c r="H6" t="n">
-        <v>1.039223670959473</v>
+        <v>1.025600910186768</v>
       </c>
       <c r="I6" t="n">
-        <v>3.72223162651062</v>
+        <v>1.135765552520752</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_5_9_4</t>
+          <t>model_5_9_19</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.2949778863242261</v>
+        <v>0.6228084098093926</v>
       </c>
       <c r="C7" t="n">
-        <v>-1.703348293639806</v>
+        <v>-4.265857545805541</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.7293573345917039</v>
+        <v>0.3905074824563063</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.523879626326406</v>
+        <v>-0.1318758940660041</v>
       </c>
       <c r="F7" t="n">
-        <v>1.433158874511719</v>
+        <v>0.4174399375915527</v>
       </c>
       <c r="G7" t="n">
-        <v>6.076592922210693</v>
+        <v>1.210419178009033</v>
       </c>
       <c r="H7" t="n">
-        <v>0.967162013053894</v>
+        <v>1.020906686782837</v>
       </c>
       <c r="I7" t="n">
-        <v>3.672157526016235</v>
+        <v>1.121236324310303</v>
       </c>
     </row>
     <row r="8">
@@ -668,28 +668,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.2911822917971529</v>
+        <v>0.6239881935253491</v>
       </c>
       <c r="C8" t="n">
-        <v>-1.793446234856033</v>
+        <v>-4.155682255841429</v>
       </c>
       <c r="D8" t="n">
-        <v>-3.866208641513887</v>
+        <v>0.3922619739397935</v>
       </c>
       <c r="E8" t="n">
-        <v>-2.164978598839469</v>
+        <v>-0.1169449750922218</v>
       </c>
       <c r="F8" t="n">
-        <v>1.428958296775818</v>
+        <v>0.4161342680454254</v>
       </c>
       <c r="G8" t="n">
-        <v>6.279115200042725</v>
+        <v>1.185094237327576</v>
       </c>
       <c r="H8" t="n">
-        <v>2.721480369567871</v>
+        <v>1.017967820167542</v>
       </c>
       <c r="I8" t="n">
-        <v>4.604933738708496</v>
+        <v>1.106445789337158</v>
       </c>
     </row>
     <row r="9">
@@ -699,90 +699,90 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.2616524950727503</v>
+        <v>0.6253122203190474</v>
       </c>
       <c r="C9" t="n">
-        <v>-1.836251002696469</v>
+        <v>-4.035947157501942</v>
       </c>
       <c r="D9" t="n">
-        <v>-3.236286143369619</v>
+        <v>0.3939892785244731</v>
       </c>
       <c r="E9" t="n">
-        <v>-2.086043635838213</v>
+        <v>-0.1008623095829866</v>
       </c>
       <c r="F9" t="n">
-        <v>1.396277546882629</v>
+        <v>0.4146689772605896</v>
       </c>
       <c r="G9" t="n">
-        <v>6.375332355499268</v>
+        <v>1.15757155418396</v>
       </c>
       <c r="H9" t="n">
-        <v>2.369189262390137</v>
+        <v>1.015074610710144</v>
       </c>
       <c r="I9" t="n">
-        <v>4.490086078643799</v>
+        <v>1.090514302253723</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_5_9_13</t>
+          <t>model_5_9_16</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.260927201430158</v>
+        <v>0.6283297361353466</v>
       </c>
       <c r="C10" t="n">
-        <v>-1.959380610248819</v>
+        <v>-3.898645890289604</v>
       </c>
       <c r="D10" t="n">
-        <v>-2.41806662788683</v>
+        <v>0.4014821888398842</v>
       </c>
       <c r="E10" t="n">
-        <v>-2.038749042875256</v>
+        <v>-0.07803260499805842</v>
       </c>
       <c r="F10" t="n">
-        <v>1.395474791526794</v>
+        <v>0.4113294780254364</v>
       </c>
       <c r="G10" t="n">
-        <v>6.652102470397949</v>
+        <v>1.126011252403259</v>
       </c>
       <c r="H10" t="n">
-        <v>1.911591172218323</v>
+        <v>1.002523899078369</v>
       </c>
       <c r="I10" t="n">
-        <v>4.421274662017822</v>
+        <v>1.067899107933044</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_5_9_16</t>
+          <t>model_5_9_15</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.2452044061961494</v>
+        <v>0.6320932925661306</v>
       </c>
       <c r="C11" t="n">
-        <v>-1.790100631941366</v>
+        <v>-3.751704726516362</v>
       </c>
       <c r="D11" t="n">
-        <v>-3.191327674793584</v>
+        <v>0.4118000086548904</v>
       </c>
       <c r="E11" t="n">
-        <v>-2.040166237575793</v>
+        <v>-0.05177161569969213</v>
       </c>
       <c r="F11" t="n">
-        <v>1.378074407577515</v>
+        <v>0.4071643352508545</v>
       </c>
       <c r="G11" t="n">
-        <v>6.271595478057861</v>
+        <v>1.092235088348389</v>
       </c>
       <c r="H11" t="n">
-        <v>2.344045639038086</v>
+        <v>0.9852414131164551</v>
       </c>
       <c r="I11" t="n">
-        <v>4.423336982727051</v>
+        <v>1.041885018348694</v>
       </c>
     </row>
     <row r="12">
@@ -792,338 +792,462 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.2374710029893004</v>
+        <v>0.638335366191108</v>
       </c>
       <c r="C12" t="n">
-        <v>-1.903481908734397</v>
+        <v>-3.573892153375944</v>
       </c>
       <c r="D12" t="n">
-        <v>-2.43790660803137</v>
+        <v>0.4296240181533025</v>
       </c>
       <c r="E12" t="n">
-        <v>-1.996618978651523</v>
+        <v>-0.01574516224492784</v>
       </c>
       <c r="F12" t="n">
-        <v>1.369515776634216</v>
+        <v>0.4002561569213867</v>
       </c>
       <c r="G12" t="n">
-        <v>6.526453495025635</v>
+        <v>1.051362752914429</v>
       </c>
       <c r="H12" t="n">
-        <v>1.92268693447113</v>
+        <v>0.9553859829902649</v>
       </c>
       <c r="I12" t="n">
-        <v>4.359976768493652</v>
+        <v>1.006197333335876</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_5_9_15</t>
+          <t>model_5_9_13</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.2335862441244805</v>
+        <v>0.6471357701459923</v>
       </c>
       <c r="C13" t="n">
-        <v>-1.761432044441333</v>
+        <v>-3.374175166295248</v>
       </c>
       <c r="D13" t="n">
-        <v>-3.155384284581717</v>
+        <v>0.4568947822007512</v>
       </c>
       <c r="E13" t="n">
-        <v>-2.010218816127027</v>
+        <v>0.03048832437902493</v>
       </c>
       <c r="F13" t="n">
-        <v>1.365216374397278</v>
+        <v>0.3905167281627655</v>
       </c>
       <c r="G13" t="n">
-        <v>6.207153797149658</v>
+        <v>1.005455493927002</v>
       </c>
       <c r="H13" t="n">
-        <v>2.323944091796875</v>
+        <v>0.9097071886062622</v>
       </c>
       <c r="I13" t="n">
-        <v>4.379764080047607</v>
+        <v>0.960398256778717</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>model_5_9_6</t>
+          <t>model_5_9_12</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.188912947111878</v>
+        <v>0.6544263503905435</v>
       </c>
       <c r="C14" t="n">
-        <v>-1.906303453807245</v>
+        <v>-3.215544795246121</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.4246235346250773</v>
+        <v>0.4832069141820742</v>
       </c>
       <c r="E14" t="n">
-        <v>-1.63475274287105</v>
+        <v>0.07091324377573038</v>
       </c>
       <c r="F14" t="n">
-        <v>1.315776228904724</v>
+        <v>0.3824481964111328</v>
       </c>
       <c r="G14" t="n">
-        <v>6.532795906066895</v>
+        <v>0.9689924716949463</v>
       </c>
       <c r="H14" t="n">
-        <v>0.7967362999916077</v>
+        <v>0.865634024143219</v>
       </c>
       <c r="I14" t="n">
-        <v>3.833474159240723</v>
+        <v>0.9203534126281738</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_5_9_12</t>
+          <t>model_5_9_11</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.1515478669122095</v>
+        <v>0.6609143584849981</v>
       </c>
       <c r="C15" t="n">
-        <v>-1.703933131524781</v>
+        <v>-3.066524068595105</v>
       </c>
       <c r="D15" t="n">
-        <v>-2.038484041655106</v>
+        <v>0.5074368752517073</v>
       </c>
       <c r="E15" t="n">
-        <v>-1.76115957152994</v>
+        <v>0.1085009895054837</v>
       </c>
       <c r="F15" t="n">
-        <v>1.274424195289612</v>
+        <v>0.3752679228782654</v>
       </c>
       <c r="G15" t="n">
-        <v>6.077907562255859</v>
+        <v>0.9347382783889771</v>
       </c>
       <c r="H15" t="n">
-        <v>1.699305415153503</v>
+        <v>0.8250486850738525</v>
       </c>
       <c r="I15" t="n">
-        <v>4.017391681671143</v>
+        <v>0.8831189870834351</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_5_9_9</t>
+          <t>model_5_9_10</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.09979397473129481</v>
+        <v>0.6681598192599781</v>
       </c>
       <c r="C16" t="n">
-        <v>-1.595377874979981</v>
+        <v>-2.914374962773083</v>
       </c>
       <c r="D16" t="n">
-        <v>-1.297820214504068</v>
+        <v>0.5359612556028938</v>
       </c>
       <c r="E16" t="n">
-        <v>-1.538395839433838</v>
+        <v>0.1498885574086387</v>
       </c>
       <c r="F16" t="n">
-        <v>1.217147827148438</v>
+        <v>0.3672492802143097</v>
       </c>
       <c r="G16" t="n">
-        <v>5.833897113800049</v>
+        <v>0.8997650146484375</v>
       </c>
       <c r="H16" t="n">
-        <v>1.285081028938293</v>
+        <v>0.7772699594497681</v>
       </c>
       <c r="I16" t="n">
-        <v>3.693278074264526</v>
+        <v>0.8421204686164856</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_5_9_10</t>
+          <t>model_5_9_9</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.06767146930878853</v>
+        <v>0.6793067376250219</v>
       </c>
       <c r="C17" t="n">
-        <v>-1.557770436012375</v>
+        <v>-2.732631634945567</v>
       </c>
       <c r="D17" t="n">
-        <v>-1.400272666424406</v>
+        <v>0.5783854931028161</v>
       </c>
       <c r="E17" t="n">
-        <v>-1.52616804051977</v>
+        <v>0.205972971948199</v>
       </c>
       <c r="F17" t="n">
-        <v>1.181597709655762</v>
+        <v>0.3549129664897919</v>
       </c>
       <c r="G17" t="n">
-        <v>5.749362468719482</v>
+        <v>0.8579891324043274</v>
       </c>
       <c r="H17" t="n">
-        <v>1.342378735542297</v>
+        <v>0.7062089443206787</v>
       </c>
       <c r="I17" t="n">
-        <v>3.675487041473389</v>
+        <v>0.7865632772445679</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_5_9_11</t>
+          <t>model_5_9_8</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.06652771854346828</v>
+        <v>0.6854857481613708</v>
       </c>
       <c r="C18" t="n">
-        <v>-1.559603731209024</v>
+        <v>-2.595010859464164</v>
       </c>
       <c r="D18" t="n">
-        <v>-1.396319369852866</v>
+        <v>0.6057477340201278</v>
       </c>
       <c r="E18" t="n">
-        <v>-1.526953749612008</v>
+        <v>0.2446524345261051</v>
       </c>
       <c r="F18" t="n">
-        <v>1.180331945419312</v>
+        <v>0.3480746150016785</v>
       </c>
       <c r="G18" t="n">
-        <v>5.753483295440674</v>
+        <v>0.8263554573059082</v>
       </c>
       <c r="H18" t="n">
-        <v>1.340167760848999</v>
+        <v>0.6603768467903137</v>
       </c>
       <c r="I18" t="n">
-        <v>3.676630258560181</v>
+        <v>0.7482473254203796</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_5_9_8</t>
+          <t>model_5_9_7</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.06407463904893751</v>
+        <v>0.6922605929887797</v>
       </c>
       <c r="C19" t="n">
-        <v>-1.499580104721869</v>
+        <v>-2.435294867594889</v>
       </c>
       <c r="D19" t="n">
-        <v>-1.205964455579257</v>
+        <v>0.63272736319576</v>
       </c>
       <c r="E19" t="n">
-        <v>-1.443425466533185</v>
+        <v>0.2857393587656289</v>
       </c>
       <c r="F19" t="n">
-        <v>1.177617192268372</v>
+        <v>0.3405768573284149</v>
       </c>
       <c r="G19" t="n">
-        <v>5.6185622215271</v>
+        <v>0.7896428108215332</v>
       </c>
       <c r="H19" t="n">
-        <v>1.233709692955017</v>
+        <v>0.6151857376098633</v>
       </c>
       <c r="I19" t="n">
-        <v>3.555099487304688</v>
+        <v>0.7075466513633728</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_5_9_7</t>
+          <t>model_5_9_6</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.05910079830215964</v>
+        <v>0.6935916782469502</v>
       </c>
       <c r="C20" t="n">
-        <v>-1.475729362974257</v>
+        <v>-2.307598096961833</v>
       </c>
       <c r="D20" t="n">
-        <v>-1.172199404609079</v>
+        <v>0.6397562211002592</v>
       </c>
       <c r="E20" t="n">
-        <v>-1.417805113535138</v>
+        <v>0.3070199746122504</v>
       </c>
       <c r="F20" t="n">
-        <v>1.172112464904785</v>
+        <v>0.3391036987304688</v>
       </c>
       <c r="G20" t="n">
-        <v>5.564950942993164</v>
+        <v>0.760290265083313</v>
       </c>
       <c r="H20" t="n">
-        <v>1.214826226234436</v>
+        <v>0.6034122705459595</v>
       </c>
       <c r="I20" t="n">
-        <v>3.517822980880737</v>
+        <v>0.6864660382270813</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_5_9_1</t>
+          <t>model_5_9_5</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-0.015495635011745</v>
+        <v>0.6947392582193285</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.4055936409913294</v>
+        <v>-2.139067238263802</v>
       </c>
       <c r="D21" t="n">
-        <v>0.7903717265937428</v>
+        <v>0.6395543866097374</v>
       </c>
       <c r="E21" t="n">
-        <v>-0.1875505674790778</v>
+        <v>0.3275632333256223</v>
       </c>
       <c r="F21" t="n">
-        <v>1.123854398727417</v>
+        <v>0.3378337025642395</v>
       </c>
       <c r="G21" t="n">
-        <v>3.159497022628784</v>
+        <v>0.7215513586997986</v>
       </c>
       <c r="H21" t="n">
-        <v>0.1172369047999382</v>
+        <v>0.6037503480911255</v>
       </c>
       <c r="I21" t="n">
-        <v>1.727845072746277</v>
+        <v>0.666115939617157</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
+          <t>model_5_9_4</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0.7008485929291517</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-1.979023630143834</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.661566269968242</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.3647391893684241</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.3310724794864655</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.684763491153717</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.5668802261352539</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.6292893886566162</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>model_5_9_3</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0.7089380036509947</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-1.679883220482193</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.6721401587725016</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.409900542792368</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.3221198618412018</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.61600261926651</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.5491688251495361</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.584552526473999</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>model_5_9_2</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0.7182267741326472</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-1.644677225653556</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.7384073191376359</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.4669571406973976</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.3118399083614349</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.6079100370407104</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.4381706118583679</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.5280323028564453</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
           <t>model_5_9_0</t>
         </is>
       </c>
-      <c r="B22" t="n">
-        <v>0.04713710220743617</v>
-      </c>
-      <c r="C22" t="n">
-        <v>-0.1595707885203177</v>
-      </c>
-      <c r="D22" t="n">
-        <v>0.8898460054644894</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0.03166413634542886</v>
-      </c>
-      <c r="F22" t="n">
-        <v>1.054538488388062</v>
-      </c>
-      <c r="G22" t="n">
-        <v>2.606486082077026</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0.0616048276424408</v>
-      </c>
-      <c r="I22" t="n">
-        <v>1.408895254135132</v>
+      <c r="B25" t="n">
+        <v>0.7796108279776712</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.8996436517196014</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.925077900726047</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.9280545078748007</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.2439058572053909</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.02306808531284332</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.1254953444004059</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.07126921415328979</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>model_5_9_1</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0.7855654854413647</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.1894413810049099</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.89336157548061</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.8155710763499575</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.2373158186674118</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.1863164156675339</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.1786205321550369</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.1826952993869781</v>
       </c>
     </row>
   </sheetData>
